--- a/biology/Botanique/Populus_deltoides/Populus_deltoides.xlsx
+++ b/biology/Botanique/Populus_deltoides/Populus_deltoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Populus deltoides est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un peuplier originaire d'Amérique du Nord, dont les feuilles sont triangulaires (comme un delta majuscule) d'où son nom vernaculaire de Peuplier deltoïde (Canada) ou Peuplier à feuille deltoïde mais cet arbre est aussi nommé liard (Canada), Peuplier de Virginie (Europe) ou encore Peuplier noir d'Amérique (Europe).
 </t>
@@ -511,11 +523,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Populus deltoides est un arbre qui peut mesurer de 20 à 25 mètres. Son écorce est lisse, mais avec le temps se craquèle et devient ridée. Ses feuilles sont vert foncé, lisses et un peu dentelées.
-Caractéristiques
-Organes reproducteurs :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Populus_deltoides</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Populus_deltoides</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : épi simple
 Répartition des sexes : dioïque
 Type de pollinisation : anémogame
